--- a/Input_Data/Energy/Energy_Scape.xlsx
+++ b/Input_Data/Energy/Energy_Scape.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioulu-my.sharepoint.com/personal/zvirk20_univ_yo_oulu_fi/Documents/WATNEX/Calculations/Conceptual Model Paper/Conceptual Model/Input_Data/Energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Nexus-Conceptual-Model\Nexus-Conceptual-Model\Input_Data\Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="6_{D7D2545A-A224-4A5B-9651-3C7BB9EC2066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0452F0-C767-45C0-9853-1D1348593EC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD87BE-4A76-476A-AC31-5840977CD7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13068" yWindow="-3624" windowWidth="13176" windowHeight="22656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Capacity</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Framruste</t>
   </si>
   <si>
-    <t>Eidefoss Biovarme</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
@@ -65,24 +62,9 @@
     <t>Oyberget</t>
   </si>
   <si>
-    <t>Skjåk - I</t>
-  </si>
-  <si>
-    <t>Smådola</t>
-  </si>
-  <si>
-    <t>Ovre Tessa</t>
-  </si>
-  <si>
     <t>MidreTessa</t>
   </si>
   <si>
-    <t>Nedre Tessa 1</t>
-  </si>
-  <si>
-    <t>Nedre Tessa 2</t>
-  </si>
-  <si>
     <t>Cell_ID</t>
   </si>
   <si>
@@ -92,12 +74,6 @@
     <t xml:space="preserve">Eidefoss </t>
   </si>
   <si>
-    <t>Nedre Otta</t>
-  </si>
-  <si>
-    <t>Tafjord 6</t>
-  </si>
-  <si>
     <t>Graffer</t>
   </si>
   <si>
@@ -107,9 +83,6 @@
     <t>Raudalsvatnet</t>
   </si>
   <si>
-    <t>Heggebotvatnet</t>
-  </si>
-  <si>
     <t>Aursojoen</t>
   </si>
   <si>
@@ -128,9 +101,6 @@
     <t>[3675,3676,3679,3680,3681,3682,3683,3684,3685,3686,3800,3801,3802,3803]</t>
   </si>
   <si>
-    <t>[3461,3462,3580]</t>
-  </si>
-  <si>
     <t>[3590,3591,3592,3593,3594,3595,3709,3710,3711,3712,3713,3714,3827,3828,3829,3830,3831,3832]</t>
   </si>
   <si>
@@ -156,16 +126,47 @@
   </si>
   <si>
     <t>Energy_Export(GWH)</t>
+  </si>
+  <si>
+    <t>Smodola</t>
+  </si>
+  <si>
+    <t>Tafjord6</t>
+  </si>
+  <si>
+    <t>OvreTessa</t>
+  </si>
+  <si>
+    <t>NedreTessa1</t>
+  </si>
+  <si>
+    <t>NedreTessa2</t>
+  </si>
+  <si>
+    <t>Skjak1</t>
+  </si>
+  <si>
+    <t>NedreOtta</t>
+  </si>
+  <si>
+    <t>EidefossBiovarme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,10 +192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,140 +480,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22550A3B-912B-4A04-84ED-DCE5371B0080}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>394.27160000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>637</v>
+        <v>394.27160000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -617,7 +622,7 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>588</v>
+        <v>394.27160000000003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -625,7 +630,7 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>539</v>
+        <v>527.94759999999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -633,7 +638,7 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>490</v>
+        <v>477.58140000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -641,7 +646,7 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>441</v>
+        <v>330.99620000000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -649,7 +654,7 @@
         <v>2019</v>
       </c>
       <c r="B21">
-        <v>392</v>
+        <v>435.80900000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,7 +662,7 @@
         <v>2020</v>
       </c>
       <c r="B22">
-        <v>343</v>
+        <v>589.08260000000007</v>
       </c>
     </row>
   </sheetData>
@@ -669,18 +674,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2BD000-5786-49C8-8899-FFD0919DBD06}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,7 +693,7 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>1323</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,7 +701,7 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>1274</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -704,7 +709,7 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>1225</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,7 +717,7 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>1176</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -720,7 +725,7 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>1127</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -728,7 +733,7 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>1078</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -736,7 +741,7 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>1029</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -744,7 +749,7 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>980</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +757,7 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>931</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +765,7 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>882</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,7 +773,7 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>833</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -776,7 +781,7 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>784</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -784,7 +789,7 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>735</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -792,7 +797,7 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>686</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +805,7 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>637</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -808,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>588</v>
+        <v>607.57360000000006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -816,7 +821,7 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>539</v>
+        <v>607.21960000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -824,7 +829,7 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>490</v>
+        <v>637.18920000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,7 +837,7 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>441</v>
+        <v>828.4217000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -840,7 +845,7 @@
         <v>2019</v>
       </c>
       <c r="B21">
-        <v>392</v>
+        <v>815.13729999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -848,7 +853,7 @@
         <v>2020</v>
       </c>
       <c r="B22">
-        <v>343</v>
+        <v>579.44759999999997</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +866,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,25 +881,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -902,7 +907,7 @@
         <v>608</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -925,7 +930,7 @@
         <v>3686</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -937,7 +942,7 @@
         <v>0.9</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3.6999999999999998E-2</v>
@@ -972,7 +977,7 @@
         <v>3819</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -995,7 +1000,7 @@
         <v>4180</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1018,7 +1023,7 @@
         <v>5148</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1041,7 +1046,7 @@
         <v>6811</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1064,7 +1069,7 @@
         <v>5751</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1087,7 +1092,7 @@
         <v>5389</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1110,7 +1115,7 @@
         <v>5389</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1133,7 +1138,7 @@
         <v>5389</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1156,7 +1161,7 @@
         <v>6123</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1179,7 +1184,7 @@
         <v>6364</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1202,7 +1207,7 @@
         <v>6608</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1214,7 +1219,7 @@
         <v>0.8</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>0.5</v>
@@ -1227,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EECFCD7-5FEC-4367-86BC-3E17D0D386AB}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,39 +1250,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1297,19 +1302,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="F3">
         <v>139.4</v>
@@ -1323,79 +1328,53 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>1.8</v>
+        <v>23.9</v>
       </c>
       <c r="G4">
         <v>135</v>
       </c>
       <c r="H4">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="F5">
-        <v>23.9</v>
+        <v>10.4</v>
       </c>
       <c r="G5">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H5">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4.2</v>
-      </c>
-      <c r="F6">
-        <v>10.4</v>
-      </c>
-      <c r="G6">
-        <v>125</v>
-      </c>
-      <c r="H6">
         <v>293</v>
       </c>
     </row>
